--- a/fhir/finnish-base-profiles/ValueSet-kanta-provenance-agent-role.xlsx
+++ b/fhir/finnish-base-profiles/ValueSet-kanta-provenance-agent-role.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-rc1</t>
+    <t>2.0.0-rc2</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T19:06:41+02:00</t>
+    <t>2025-05-11T16:31:48+03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/finnish-base-profiles/ValueSet-kanta-provenance-agent-role.xlsx
+++ b/fhir/finnish-base-profiles/ValueSet-kanta-provenance-agent-role.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-rc2</t>
+    <t>2.0.0-rc1</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:31:48+03:00</t>
+    <t>2025-02-06T19:06:41+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/finnish-base-profiles/ValueSet-kanta-provenance-agent-role.xlsx
+++ b/fhir/finnish-base-profiles/ValueSet-kanta-provenance-agent-role.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-rc1</t>
+    <t>2.0.0-rc2</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T19:06:41+02:00</t>
+    <t>2025-05-11T20:18:22+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
